--- a/BackTest/2019-10-29 BackTest OGO.xlsx
+++ b/BackTest/2019-10-29 BackTest OGO.xlsx
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K179" t="n">
         <v>22.5</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="K180" t="n">
         <v>22.5</v>
@@ -6772,14 +6772,12 @@
         <v>22.57500000000001</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>22.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>22.5</v>
       </c>
@@ -6821,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="K182" t="n">
         <v>22.5</v>
@@ -6987,14 +6985,12 @@
         <v>22.48500000000001</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>22.5</v>
       </c>
@@ -7030,14 +7026,12 @@
         <v>22.46500000000001</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
         <v>22.5</v>
       </c>
@@ -7073,14 +7067,12 @@
         <v>22.45000000000001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>22.5</v>
       </c>
@@ -7116,14 +7108,12 @@
         <v>22.44500000000001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>22.5</v>
       </c>
@@ -7159,14 +7149,12 @@
         <v>22.44000000000001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
         <v>22.5</v>
       </c>
@@ -7202,14 +7190,12 @@
         <v>22.43500000000001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>22.5</v>
       </c>
@@ -7245,14 +7231,12 @@
         <v>22.43000000000001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
         <v>22.5</v>
       </c>
@@ -7288,14 +7272,12 @@
         <v>22.44</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
         <v>22.5</v>
       </c>
@@ -7331,14 +7313,12 @@
         <v>22.45500000000001</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>22.5</v>
       </c>
@@ -7374,14 +7354,12 @@
         <v>22.46500000000001</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
         <v>22.5</v>
       </c>
@@ -7417,14 +7395,12 @@
         <v>22.475</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
         <v>22.5</v>
       </c>
@@ -7460,14 +7436,12 @@
         <v>22.48500000000001</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
         <v>22.5</v>
       </c>
@@ -7503,14 +7477,12 @@
         <v>22.495</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
         <v>22.5</v>
       </c>
@@ -7546,14 +7518,12 @@
         <v>22.50500000000001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
         <v>22.5</v>
       </c>
@@ -7589,14 +7559,12 @@
         <v>22.52000000000001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
         <v>22.5</v>
       </c>
@@ -7632,14 +7600,12 @@
         <v>22.53500000000001</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
         <v>22.5</v>
       </c>
@@ -7675,14 +7641,12 @@
         <v>22.56000000000001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
         <v>22.5</v>
       </c>
@@ -7718,14 +7682,12 @@
         <v>22.58000000000001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
         <v>22.5</v>
       </c>
@@ -7761,14 +7723,12 @@
         <v>22.59500000000001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
         <v>22.5</v>
       </c>
@@ -7804,14 +7764,12 @@
         <v>22.61500000000001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>22.5</v>
       </c>
@@ -7847,14 +7805,12 @@
         <v>22.63500000000001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
         <v>22.5</v>
       </c>
@@ -7890,14 +7846,12 @@
         <v>22.65000000000001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
         <v>22.5</v>
       </c>
@@ -7933,14 +7887,12 @@
         <v>22.65500000000001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
         <v>22.5</v>
       </c>
@@ -7976,14 +7928,12 @@
         <v>22.66500000000001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
         <v>22.5</v>
       </c>
@@ -8019,14 +7969,12 @@
         <v>22.67500000000001</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
         <v>22.5</v>
       </c>
@@ -8062,14 +8010,12 @@
         <v>22.70000000000001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>23</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
         <v>22.5</v>
       </c>
@@ -8105,14 +8051,12 @@
         <v>22.72500000000001</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>23</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>22.5</v>
       </c>
@@ -8148,14 +8092,12 @@
         <v>22.74000000000001</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>23</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>22.5</v>
       </c>
@@ -8191,14 +8133,12 @@
         <v>22.75500000000001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
         <v>22.5</v>
       </c>
@@ -8234,14 +8174,12 @@
         <v>22.77500000000001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
         <v>22.5</v>
       </c>
@@ -9179,14 +9117,12 @@
         <v>22.90500000000001</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
         <v>22.5</v>
       </c>
@@ -10083,14 +10019,12 @@
         <v>22.88000000000001</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
         <v>22.5</v>
       </c>
@@ -10126,14 +10060,12 @@
         <v>22.87000000000001</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
         <v>22.5</v>
       </c>
@@ -10169,14 +10101,12 @@
         <v>22.85000000000001</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
         <v>22.5</v>
       </c>
@@ -10212,14 +10142,12 @@
         <v>22.83500000000001</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
         <v>22.5</v>
       </c>
@@ -10255,14 +10183,12 @@
         <v>22.81000000000001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
         <v>22.5</v>
       </c>
@@ -10298,14 +10224,12 @@
         <v>22.79500000000001</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>22.7</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
         <v>22.5</v>
       </c>
@@ -10341,14 +10265,12 @@
         <v>22.79000000000001</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
         <v>22.5</v>
       </c>
@@ -10384,14 +10306,12 @@
         <v>22.80000000000001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>22.9</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
         <v>22.5</v>
       </c>
@@ -10427,14 +10347,12 @@
         <v>22.80500000000001</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>23.1</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
         <v>22.5</v>
       </c>
@@ -10842,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
@@ -10850,11 +10768,11 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>1</v>
+        <v>1.030555555555556</v>
       </c>
     </row>
     <row r="279">
@@ -10883,17 +10801,11 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10927,14 +10839,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10968,14 +10874,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11009,14 +10909,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11050,14 +10944,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11091,14 +10979,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11132,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11173,14 +11049,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11214,14 +11084,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11255,14 +11119,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11296,14 +11154,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11337,14 +11189,8 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11378,14 +11224,8 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11419,14 +11259,8 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11460,14 +11294,8 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11501,14 +11329,8 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11542,14 +11364,8 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11583,14 +11399,8 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11624,14 +11434,8 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11665,14 +11469,8 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11706,14 +11504,8 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11747,14 +11539,8 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11788,14 +11574,8 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11829,14 +11609,8 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11870,14 +11644,8 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11911,14 +11679,8 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11952,14 +11714,8 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11993,14 +11749,8 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12034,14 +11784,8 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12075,14 +11819,8 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12116,14 +11854,8 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12157,14 +11889,8 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12198,14 +11924,8 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12239,14 +11959,8 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12280,14 +11994,8 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12321,14 +12029,8 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12362,14 +12064,8 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12403,14 +12099,8 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12444,14 +12134,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12485,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12526,14 +12204,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12567,14 +12239,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12608,14 +12274,8 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12649,14 +12309,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12690,14 +12344,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12731,14 +12379,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12772,14 +12414,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12813,14 +12449,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12854,14 +12484,8 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12895,14 +12519,8 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12936,14 +12554,8 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12977,14 +12589,8 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13018,14 +12624,8 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13059,14 +12659,8 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13100,14 +12694,8 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13141,14 +12729,8 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13182,14 +12764,8 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13223,14 +12799,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13264,14 +12834,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13305,14 +12869,8 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13346,14 +12904,8 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13387,14 +12939,8 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13428,14 +12974,8 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13469,14 +13009,8 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13510,14 +13044,8 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13551,14 +13079,8 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13592,14 +13114,8 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13633,14 +13149,8 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13674,14 +13184,8 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13715,14 +13219,8 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13756,14 +13254,8 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13797,14 +13289,8 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13838,14 +13324,8 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13879,14 +13359,8 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13920,14 +13394,8 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13961,14 +13429,8 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14002,14 +13464,8 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14043,14 +13499,8 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14084,14 +13534,8 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14125,14 +13569,8 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="inlineStr"/>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14166,14 +13604,8 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="inlineStr"/>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14207,14 +13639,8 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="inlineStr"/>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14248,14 +13674,8 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="inlineStr"/>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14289,14 +13709,8 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="inlineStr"/>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14330,14 +13744,8 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="inlineStr"/>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14371,14 +13779,8 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="inlineStr"/>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14412,14 +13814,8 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="inlineStr"/>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14453,14 +13849,8 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14494,14 +13884,8 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="inlineStr"/>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14535,14 +13919,8 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="inlineStr"/>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14576,14 +13954,8 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="inlineStr"/>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14617,14 +13989,8 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14658,14 +14024,8 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="inlineStr"/>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14699,14 +14059,8 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="inlineStr"/>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14740,14 +14094,8 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="inlineStr"/>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14781,14 +14129,8 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14822,14 +14164,8 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="inlineStr"/>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14863,14 +14199,8 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="inlineStr"/>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14904,14 +14234,8 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14945,14 +14269,8 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14986,14 +14304,8 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15027,14 +14339,8 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15068,14 +14374,8 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15109,14 +14409,8 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="inlineStr"/>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15150,14 +14444,8 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15191,14 +14479,8 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15232,14 +14514,8 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="inlineStr"/>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15273,14 +14549,8 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15314,14 +14584,8 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15355,14 +14619,8 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="inlineStr"/>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15396,14 +14654,8 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15437,14 +14689,8 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="inlineStr"/>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15478,14 +14724,8 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="inlineStr"/>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15519,14 +14759,8 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15560,14 +14794,8 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15601,14 +14829,8 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15642,14 +14864,8 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15683,14 +14899,8 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15724,14 +14934,8 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15765,14 +14969,8 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15806,14 +15004,8 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15847,14 +15039,8 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15888,14 +15074,8 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15929,14 +15109,8 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15970,14 +15144,8 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -16011,14 +15179,8 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -16052,14 +15214,8 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16093,14 +15249,8 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16134,14 +15284,8 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16175,14 +15319,8 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16216,14 +15354,8 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16257,14 +15389,8 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16298,14 +15424,8 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16339,14 +15459,8 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16380,14 +15494,8 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16421,14 +15529,8 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16462,14 +15564,8 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16503,14 +15599,8 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16544,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16585,14 +15669,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16626,14 +15704,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16667,14 +15739,8 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16708,14 +15774,8 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16749,14 +15809,8 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16790,14 +15844,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16831,14 +15879,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16872,14 +15914,8 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16913,14 +15949,8 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16954,14 +15984,8 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16995,14 +16019,8 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -17036,14 +16054,8 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -17077,14 +16089,8 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -17118,14 +16124,8 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17159,14 +16159,8 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17200,14 +16194,8 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17241,14 +16229,8 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17282,14 +16264,8 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17323,14 +16299,8 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17364,14 +16334,8 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17405,14 +16369,8 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17440,22 +16398,14 @@
         <v>22.97000000000002</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K439" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17483,22 +16433,14 @@
         <v>22.93500000000002</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K440" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17526,22 +16468,14 @@
         <v>22.90500000000002</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K441" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17577,12 +16511,10 @@
       <c r="J442" t="n">
         <v>22.6</v>
       </c>
-      <c r="K442" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M442" t="n">
@@ -17620,9 +16552,7 @@
       <c r="J443" t="n">
         <v>22.7</v>
       </c>
-      <c r="K443" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17663,9 +16593,7 @@
       <c r="J444" t="n">
         <v>22.7</v>
       </c>
-      <c r="K444" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17706,9 +16634,7 @@
       <c r="J445" t="n">
         <v>22.7</v>
       </c>
-      <c r="K445" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17749,9 +16675,7 @@
       <c r="J446" t="n">
         <v>22.7</v>
       </c>
-      <c r="K446" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17792,9 +16716,7 @@
       <c r="J447" t="n">
         <v>22.7</v>
       </c>
-      <c r="K447" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17835,9 +16757,7 @@
       <c r="J448" t="n">
         <v>22.7</v>
       </c>
-      <c r="K448" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17876,11 +16796,9 @@
         <v>0</v>
       </c>
       <c r="J449" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K449" t="n">
-        <v>22.5</v>
-      </c>
+        <v>22.7</v>
+      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17921,9 +16839,7 @@
       <c r="J450" t="n">
         <v>22.9</v>
       </c>
-      <c r="K450" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17964,9 +16880,7 @@
       <c r="J451" t="n">
         <v>22.9</v>
       </c>
-      <c r="K451" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17999,17 +16913,13 @@
         <v>22.72000000000001</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K452" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18042,15 +16952,15 @@
         <v>22.725</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J453" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18089,9 +16999,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18130,9 +17038,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,9 +17077,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18206,17 +17110,13 @@
         <v>22.775</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>23</v>
-      </c>
-      <c r="K457" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18255,9 +17155,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18296,9 +17194,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,9 +17233,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18378,9 +17272,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18419,9 +17311,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18460,9 +17350,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,9 +17389,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18542,9 +17428,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18583,9 +17467,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18624,9 +17506,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18665,9 +17545,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18706,9 +17584,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18747,9 +17623,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18788,9 +17662,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18829,9 +17701,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18870,9 +17740,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18911,9 +17779,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18949,20 +17815,16 @@
         <v>0</v>
       </c>
       <c r="I475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M475" t="n">
-        <v>1</v>
-      </c>
+      <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -18990,17 +17852,11 @@
         <v>0</v>
       </c>
       <c r="I476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -19031,17 +17887,11 @@
         <v>0</v>
       </c>
       <c r="I477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -19075,14 +17925,8 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -19116,14 +17960,8 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -19157,14 +17995,8 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -19198,14 +18030,8 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -19236,19 +18062,13 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
-        <v>1.079444444444444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -19277,7 +18097,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
@@ -19312,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
@@ -19347,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
@@ -19382,7 +18202,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest OGO.xlsx
+++ b/BackTest/2019-10-29 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,7 +1870,7 @@
         <v>933092.0715949999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>841320.4894949999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>562995.2205949998</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>560975.2205949998</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>710183.3266949998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>710183.3266949998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>665406.0733949998</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>665406.0733949998</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>665406.0733949998</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>687166.6769949999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>687166.6769949999</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>687166.6769949999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>679016.3679949999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>696329.2784949999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>681951.0623949999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>686373.0623949999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>805733.1285949999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>727025.5718949999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>680214.5718949999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>680214.5718949999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>952107.4876949999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>950440.7455949999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>944440.7455949999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>921200.6639949998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>895397.1004949998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>766870.4368949998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>768418.6216949999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>764019.6216949999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>761024.6216949999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>771024.6216949999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>771067.6216949999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>771067.6216949999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>771078.7909949998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>717883.6447949999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>782364.2977949999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>747275.3475949999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>747275.3475949999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>694273.0181949999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>696659.6600949999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>655160.9567949999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>584199.1197949999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>620710.536595</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>620710.536595</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>620710.536595</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>597621.5862949999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>655505.8421949999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>655505.8421949999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>655540.0869949999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>647721.4051949999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>762253.9832949999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>762253.9832949999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>762253.9832949999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>910282.1206504656</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>910282.1206504656</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>910282.1206504656</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>970985.7401504656</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>966492.6271504656</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1372999.167930549</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1340752.650630549</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1371865.007630549</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1360588.007630549</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1360588.007630549</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1390742.007630549</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1440962.007630549</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1438962.007630549</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1432194.182730549</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1340025.16623055</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1344025.16623055</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1312661.41103055</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>666185.2944305496</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>679563.8856305496</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>668568.8856305496</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>658568.8856305496</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>660568.8856305496</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>662273.4862305496</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -8074,14 +8074,10 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J233" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8111,19 +8107,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J234" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8152,19 +8140,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J235" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8193,14 +8173,10 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J236" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
@@ -8230,7 +8206,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>22.5</v>
@@ -8238,11 +8214,7 @@
       <c r="J237" t="n">
         <v>22.5</v>
       </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +8243,7 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>22.5</v>
@@ -8312,7 +8284,7 @@
         <v>537056.6119305495</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>22.5</v>
@@ -8353,7 +8325,7 @@
         <v>537056.6119305495</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>22.4</v>
@@ -8394,7 +8366,7 @@
         <v>472510.2118305495</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>22.4</v>
@@ -8435,9 +8407,11 @@
         <v>818752.6224305495</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>22.3</v>
+      </c>
       <c r="J242" t="n">
         <v>22.5</v>
       </c>
@@ -8474,7 +8448,7 @@
         <v>818752.6224305495</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>22.4</v>
@@ -8515,7 +8489,7 @@
         <v>818752.6224305495</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>22.4</v>
@@ -8556,7 +8530,7 @@
         <v>818752.6224305495</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>22.4</v>
@@ -8597,9 +8571,11 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>22.4</v>
+      </c>
       <c r="J246" t="n">
         <v>22.5</v>
       </c>
@@ -8636,9 +8612,11 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J247" t="n">
         <v>22.5</v>
       </c>
@@ -8675,9 +8653,11 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J248" t="n">
         <v>22.5</v>
       </c>
@@ -8714,9 +8694,11 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J249" t="n">
         <v>22.5</v>
       </c>
@@ -8753,9 +8735,11 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J250" t="n">
         <v>22.5</v>
       </c>
@@ -8792,7 +8776,7 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>22.5</v>
@@ -8833,11 +8817,9 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
         <v>22.5</v>
       </c>
@@ -8874,7 +8856,7 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>22.7</v>
@@ -8915,11 +8897,9 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>22.5</v>
       </c>
@@ -8956,9 +8936,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J255" t="n">
         <v>22.5</v>
       </c>
@@ -8995,9 +8977,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J256" t="n">
         <v>22.5</v>
       </c>
@@ -9034,7 +9018,7 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>22.7</v>
@@ -9075,7 +9059,7 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>22.7</v>
@@ -9116,7 +9100,7 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>22.7</v>
@@ -9157,7 +9141,7 @@
         <v>855504.0712305495</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>22.7</v>
@@ -9549,11 +9533,9 @@
         <v>902284.6883305494</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>22.5</v>
       </c>
@@ -9590,11 +9572,9 @@
         <v>902284.6883305494</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>22.5</v>
       </c>
@@ -9709,9 +9689,11 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J274" t="n">
         <v>22.5</v>
       </c>
@@ -9826,9 +9808,11 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J277" t="n">
         <v>22.5</v>
       </c>
@@ -9865,9 +9849,11 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>23</v>
+      </c>
       <c r="J278" t="n">
         <v>22.5</v>
       </c>
@@ -9904,9 +9890,11 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>23</v>
+      </c>
       <c r="J279" t="n">
         <v>22.5</v>
       </c>
@@ -9943,7 +9931,7 @@
         <v>873617.6883305494</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>23</v>
@@ -9984,11 +9972,9 @@
         <v>866633.5910305494</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>22.5</v>
       </c>
@@ -10025,11 +10011,9 @@
         <v>880316.5910305494</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>22.5</v>
       </c>
@@ -10066,7 +10050,7 @@
         <v>859216.5910305494</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>23.2</v>
@@ -10107,7 +10091,7 @@
         <v>859410.5565305494</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>22.9</v>
@@ -10148,7 +10132,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>23.1</v>
@@ -10189,7 +10173,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>23</v>
@@ -10230,7 +10214,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>23</v>
@@ -10271,7 +10255,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>23</v>
@@ -10312,7 +10296,7 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>23</v>
@@ -10353,11 +10337,9 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>22.5</v>
       </c>
@@ -10394,11 +10376,9 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
         <v>22.5</v>
       </c>
@@ -10435,11 +10415,9 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>22.5</v>
       </c>
@@ -10476,11 +10454,9 @@
         <v>815508.4621305495</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>22.5</v>
       </c>
@@ -10517,11 +10493,9 @@
         <v>837638.8968305495</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>22.5</v>
       </c>
@@ -10558,11 +10532,9 @@
         <v>813638.8968305495</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
         <v>22.5</v>
       </c>
@@ -10599,7 +10571,7 @@
         <v>813738.8968305495</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>22.6</v>
@@ -10640,11 +10612,9 @@
         <v>813647.5771305495</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>22.5</v>
       </c>
@@ -10681,11 +10651,9 @@
         <v>850960.6206305495</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
         <v>22.5</v>
       </c>
@@ -10722,11 +10690,9 @@
         <v>936965.2725305494</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>22.5</v>
       </c>
@@ -10763,11 +10729,9 @@
         <v>996907.6071305494</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
         <v>22.5</v>
       </c>
@@ -10921,11 +10885,9 @@
         <v>917461.4215050621</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
         <v>22.5</v>
       </c>
@@ -10962,11 +10924,9 @@
         <v>917461.4215050621</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
         <v>22.5</v>
       </c>
@@ -11003,11 +10963,9 @@
         <v>913164.4854050621</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
         <v>22.5</v>
       </c>
@@ -11044,7 +11002,7 @@
         <v>935665.4854050621</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>22.7</v>
@@ -11085,11 +11043,9 @@
         <v>933665.4854050621</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
         <v>22.5</v>
       </c>
@@ -11126,11 +11082,9 @@
         <v>705880.3437050621</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
         <v>22.5</v>
       </c>
@@ -11167,11 +11121,9 @@
         <v>728892.3437050621</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>22.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
         <v>22.5</v>
       </c>
@@ -11208,11 +11160,9 @@
         <v>720892.3437050621</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
         <v>22.5</v>
       </c>
@@ -11249,11 +11199,9 @@
         <v>729318.3437050621</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
         <v>22.5</v>
       </c>
@@ -11290,11 +11238,9 @@
         <v>729318.3437050621</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
         <v>22.5</v>
       </c>
@@ -11331,11 +11277,9 @@
         <v>743005.3437050621</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
         <v>22.5</v>
       </c>
@@ -11411,11 +11355,9 @@
         <v>792853.370105062</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
         <v>22.5</v>
       </c>
@@ -11452,11 +11394,9 @@
         <v>797395.370105062</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
         <v>22.5</v>
       </c>
@@ -11532,7 +11472,7 @@
         <v>796315.370105062</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>22.7</v>
@@ -11573,9 +11513,11 @@
         <v>800359.229705062</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J320" t="n">
         <v>22.5</v>
       </c>
@@ -11612,7 +11554,7 @@
         <v>800359.229705062</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>22.8</v>
@@ -11653,9 +11595,11 @@
         <v>759645.822605062</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>22.8</v>
+      </c>
       <c r="J322" t="n">
         <v>22.5</v>
       </c>
@@ -11692,7 +11636,7 @@
         <v>759645.822605062</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>22.5</v>
@@ -11733,7 +11677,7 @@
         <v>937427.6052050621</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>22.5</v>
@@ -11774,11 +11718,9 @@
         <v>927586.120505062</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>22.5</v>
       </c>
@@ -14311,7 +14253,7 @@
         <v>1490382.211268621</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
@@ -14319,11 +14261,11 @@
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L390" t="n">
-        <v>1</v>
+        <v>1.021666666666667</v>
       </c>
       <c r="M390" t="inlineStr"/>
     </row>
@@ -14353,14 +14295,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14389,17 +14325,11 @@
         <v>1540969.202568622</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14431,14 +14361,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14470,14 +14394,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14509,14 +14427,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14548,14 +14460,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14587,14 +14493,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14623,17 +14523,11 @@
         <v>1736298.675835994</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14662,17 +14556,11 @@
         <v>1723983.663435994</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14701,17 +14589,11 @@
         <v>1723983.663435994</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14740,17 +14622,11 @@
         <v>1723983.663435994</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14779,17 +14655,11 @@
         <v>1653184.680935994</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14818,17 +14688,11 @@
         <v>1667536.873935994</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14857,17 +14721,11 @@
         <v>1603954.873935994</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14896,17 +14754,11 @@
         <v>1601342.901435995</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14935,17 +14787,11 @@
         <v>1611342.901435995</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14974,17 +14820,11 @@
         <v>1688853.262635994</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15016,14 +14856,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15055,14 +14889,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15094,14 +14922,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15133,14 +14955,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15172,14 +14988,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15211,14 +15021,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15250,14 +15054,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15289,14 +15087,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15328,14 +15120,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15367,14 +15153,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15403,17 +15183,11 @@
         <v>1385882.647035995</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15445,14 +15219,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15484,14 +15252,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15523,14 +15285,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15562,14 +15318,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15601,14 +15351,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15640,14 +15384,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15679,14 +15417,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15718,14 +15450,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15757,14 +15483,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15796,14 +15516,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15835,14 +15549,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15874,14 +15582,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15913,14 +15615,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15952,14 +15648,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15991,14 +15681,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16030,14 +15714,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16069,14 +15747,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16108,14 +15780,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16147,14 +15813,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16186,14 +15846,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16225,14 +15879,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16264,14 +15912,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16303,14 +15945,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16342,14 +15978,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16381,14 +16011,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16420,14 +16044,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16459,14 +16077,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16498,14 +16110,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16537,14 +16143,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16576,14 +16176,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16615,14 +16209,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16654,14 +16242,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16693,14 +16275,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16732,14 +16308,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16771,14 +16341,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16810,14 +16374,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16849,14 +16407,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16888,14 +16440,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16927,14 +16473,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16966,14 +16506,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17005,14 +16539,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17044,14 +16572,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17083,14 +16605,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17122,14 +16638,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17161,14 +16671,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17200,14 +16704,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17239,14 +16737,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17278,14 +16770,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17317,14 +16803,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17356,14 +16836,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17395,14 +16869,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17434,14 +16902,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17473,14 +16935,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17512,14 +16968,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17551,14 +17001,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17590,14 +17034,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17629,14 +17067,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17668,14 +17100,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17707,14 +17133,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17743,19 +17163,11 @@
         <v>1530151.818335995</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J478" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17787,14 +17199,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17823,19 +17229,11 @@
         <v>1525715.987535994</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J480" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17864,19 +17262,11 @@
         <v>1526320.451035995</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
-      </c>
-      <c r="I481" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J481" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17908,14 +17298,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17947,14 +17331,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17986,14 +17364,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18025,14 +17397,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18064,14 +17430,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18103,14 +17463,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18142,14 +17496,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18181,14 +17529,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18220,14 +17562,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18259,14 +17595,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18298,14 +17628,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18337,14 +17661,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18373,19 +17691,11 @@
         <v>1063720.538135994</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J494" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18414,19 +17724,11 @@
         <v>1063720.538135994</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J495" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18455,19 +17757,11 @@
         <v>1063720.538135994</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J496" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18496,19 +17790,11 @@
         <v>1067028.153435994</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J497" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18537,19 +17823,11 @@
         <v>1067028.153435994</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J498" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18578,19 +17856,11 @@
         <v>1030961.471935994</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J499" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18619,19 +17889,11 @@
         <v>1030961.471935994</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J500" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18660,19 +17922,11 @@
         <v>1034961.471935994</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J501" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18701,19 +17955,11 @@
         <v>1034961.471935994</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J502" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18742,19 +17988,11 @@
         <v>1034961.471935994</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J503" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18783,19 +18021,11 @@
         <v>1034961.471935994</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J504" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18824,19 +18054,11 @@
         <v>1034961.471935994</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J505" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18865,19 +18087,11 @@
         <v>1034961.471935994</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J506" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18906,19 +18120,11 @@
         <v>1034961.471935994</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J507" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18947,19 +18153,11 @@
         <v>1036961.471935994</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J508" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18988,19 +18186,11 @@
         <v>1036961.471935994</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J509" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19029,19 +18219,11 @@
         <v>1036961.471935994</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J510" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19070,19 +18252,11 @@
         <v>999591.0164359944</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J511" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19111,19 +18285,11 @@
         <v>999591.0164359944</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J512" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19152,19 +18318,11 @@
         <v>999591.0164359944</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J513" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19193,19 +18351,11 @@
         <v>999091.0164359944</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J514" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19234,19 +18384,11 @@
         <v>1003897.545935994</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J515" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19275,19 +18417,11 @@
         <v>1003897.545935994</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>23</v>
-      </c>
-      <c r="J516" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19316,19 +18450,11 @@
         <v>1011697.468635994</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>23</v>
-      </c>
-      <c r="J517" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19357,19 +18483,11 @@
         <v>972891.0896359944</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="J518" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19398,19 +18516,11 @@
         <v>960461.1584359944</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="J519" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19439,19 +18549,11 @@
         <v>960610.0389359944</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J520" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19480,19 +18582,11 @@
         <v>970610.0389359944</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
-      </c>
-      <c r="I521" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="J521" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19521,19 +18615,11 @@
         <v>970610.0389359944</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J522" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19565,14 +18651,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19601,19 +18681,11 @@
         <v>970610.0389359944</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="J524" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19645,14 +18717,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19684,14 +18750,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19723,14 +18783,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19762,14 +18816,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19801,14 +18849,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19840,14 +18882,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19879,14 +18915,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19918,14 +18948,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19957,14 +18981,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19996,14 +19014,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20035,14 +19047,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20074,14 +19080,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20113,14 +19113,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20152,14 +19146,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20191,14 +19179,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20230,14 +19212,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20269,14 +19245,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20308,14 +19278,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20347,14 +19311,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20386,14 +19344,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20425,14 +19377,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20464,14 +19410,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20503,14 +19443,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20542,14 +19476,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20581,14 +19509,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20620,14 +19542,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20659,14 +19575,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20698,14 +19608,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20737,14 +19641,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20776,14 +19674,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20812,19 +19704,11 @@
         <v>1032565.205035994</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="J555" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20856,14 +19740,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20895,14 +19773,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20934,14 +19806,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20973,14 +19839,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -21012,14 +19872,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -21051,14 +19905,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -21090,14 +19938,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -21129,20 +19971,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
       <c r="M563" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest OGO.xlsx
+++ b/BackTest/2019-10-29 BackTest OGO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>398128.4032</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>359106.1365</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>276828.023</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>933092.0715949999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>841320.4894949999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>562995.2205949998</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>560975.2205949998</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>710183.3266949998</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>710183.3266949998</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>665406.0733949998</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>665406.0733949998</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>665406.0733949998</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>687166.6769949999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>687166.6769949999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>687166.6769949999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>679016.3679949999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>696329.2784949999</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>681951.0623949999</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>686373.0623949999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>805733.1285949999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>727025.5718949999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>680214.5718949999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>680214.5718949999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>952107.4876949999</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>950440.7455949999</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>944440.7455949999</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>921200.6639949998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>895397.1004949998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>766870.4368949998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>768418.6216949999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>764019.6216949999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>761024.6216949999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>771024.6216949999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>771067.6216949999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>771067.6216949999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>771078.7909949998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>717883.6447949999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>782364.2977949999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>747275.3475949999</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1372999.167930549</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1360588.007630549</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1390742.007630549</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1440962.007630549</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1438962.007630549</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1432194.182730549</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1340025.16623055</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1344025.16623055</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1312661.41103055</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>666185.2944305496</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>679563.8856305496</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>668568.8856305496</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>658568.8856305496</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>660568.8856305496</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>662273.4862305496</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7975,10 +7975,14 @@
         <v>603974.0219305495</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J230" t="n">
+        <v>22.6</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
@@ -8008,11 +8012,19 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J231" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8053,19 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J232" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8094,19 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J233" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8135,19 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J234" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8176,19 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J235" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8217,19 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J236" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8212,9 +8264,13 @@
         <v>22.5</v>
       </c>
       <c r="J237" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+        <v>22.6</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +8305,11 @@
         <v>22.5</v>
       </c>
       <c r="J238" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8290,7 +8346,7 @@
         <v>22.5</v>
       </c>
       <c r="J239" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8331,7 +8387,7 @@
         <v>22.4</v>
       </c>
       <c r="J240" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8372,7 +8428,7 @@
         <v>22.4</v>
       </c>
       <c r="J241" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8413,7 +8469,7 @@
         <v>22.3</v>
       </c>
       <c r="J242" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8454,7 +8510,7 @@
         <v>22.4</v>
       </c>
       <c r="J243" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8495,7 +8551,7 @@
         <v>22.4</v>
       </c>
       <c r="J244" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8536,7 +8592,7 @@
         <v>22.4</v>
       </c>
       <c r="J245" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8577,7 +8633,7 @@
         <v>22.4</v>
       </c>
       <c r="J246" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8618,7 +8674,7 @@
         <v>22.5</v>
       </c>
       <c r="J247" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8659,7 +8715,7 @@
         <v>22.5</v>
       </c>
       <c r="J248" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8700,7 +8756,7 @@
         <v>22.5</v>
       </c>
       <c r="J249" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8735,13 +8791,11 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8776,13 +8830,11 @@
         <v>878128.7546305495</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8817,11 +8869,13 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J252" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8856,13 +8910,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8901,7 +8953,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8936,13 +8988,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8977,13 +9027,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9018,13 +9066,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9059,13 +9105,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9100,13 +9144,11 @@
         <v>878204.2646305495</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9141,13 +9183,11 @@
         <v>855504.0712305495</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9186,7 +9226,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9225,7 +9265,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9264,7 +9304,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9303,7 +9343,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9342,7 +9382,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9381,7 +9421,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9420,7 +9460,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9459,7 +9499,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9498,7 +9538,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9537,7 +9577,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9576,7 +9616,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9615,7 +9655,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9654,7 +9694,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9689,13 +9729,11 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9734,7 +9772,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9773,7 +9811,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9808,13 +9846,11 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9849,13 +9885,11 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9890,13 +9924,11 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9931,13 +9963,11 @@
         <v>873617.6883305494</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9976,7 +10006,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10015,7 +10045,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10050,13 +10080,11 @@
         <v>859216.5910305494</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>23.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10091,13 +10119,11 @@
         <v>859410.5565305494</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10132,13 +10158,11 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>23.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10173,13 +10197,11 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10214,13 +10236,11 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10255,13 +10275,11 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10296,13 +10314,11 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10341,7 +10357,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10380,7 +10396,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10419,7 +10435,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10458,7 +10474,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10497,7 +10513,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10536,7 +10552,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10571,13 +10587,11 @@
         <v>813738.8968305495</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
         <v>22.6</v>
-      </c>
-      <c r="J296" t="n">
-        <v>22.5</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10616,7 +10630,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10655,7 +10669,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10694,7 +10708,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10733,7 +10747,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10772,7 +10786,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10811,7 +10825,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10850,7 +10864,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10889,7 +10903,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10928,7 +10942,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10967,7 +10981,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11002,13 +11016,11 @@
         <v>935665.4854050621</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11047,7 +11059,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11086,7 +11098,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11125,7 +11137,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11164,7 +11176,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11203,7 +11215,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11242,7 +11254,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11281,7 +11293,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11320,7 +11332,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11359,7 +11371,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11398,7 +11410,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11437,7 +11449,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11472,13 +11484,11 @@
         <v>796315.370105062</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11513,13 +11523,11 @@
         <v>800359.229705062</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11554,13 +11562,11 @@
         <v>800359.229705062</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11595,13 +11601,11 @@
         <v>759645.822605062</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>22.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11636,13 +11640,11 @@
         <v>759645.822605062</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11677,13 +11679,11 @@
         <v>937427.6052050621</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>22.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11800,7 +11800,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12147,19 +12147,19 @@
         <v>1448676.826705062</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>1</v>
+        <v>1.01712389380531</v>
       </c>
       <c r="M336" t="inlineStr"/>
     </row>
@@ -12189,14 +12189,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12228,14 +12222,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12267,14 +12255,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12306,14 +12288,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12345,14 +12321,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12384,14 +12354,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12423,14 +12387,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12462,14 +12420,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12501,14 +12453,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12540,14 +12486,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12579,14 +12519,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12618,14 +12552,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12657,14 +12585,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12696,14 +12618,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12735,14 +12651,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12774,14 +12684,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12813,14 +12717,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12852,14 +12750,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12891,14 +12783,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12930,14 +12816,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12966,17 +12846,11 @@
         <v>2034235.400805062</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13008,14 +12882,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13047,14 +12915,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13086,14 +12948,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13122,17 +12978,11 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13161,17 +13011,11 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13200,17 +13044,11 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13239,17 +13077,11 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13278,17 +13110,11 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13317,17 +13143,11 @@
         <v>2032563.317268621</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13356,17 +13176,11 @@
         <v>1999387.048268621</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13395,17 +13209,11 @@
         <v>2008398.048268621</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13434,17 +13242,11 @@
         <v>2010138.048268621</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13473,17 +13275,11 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13512,17 +13308,11 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13551,17 +13341,11 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13590,17 +13374,11 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13629,17 +13407,11 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13668,17 +13440,11 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13710,14 +13476,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13746,17 +13506,11 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13785,17 +13539,11 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13824,17 +13572,11 @@
         <v>1450972.978568621</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13866,14 +13608,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13905,14 +13641,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13944,14 +13674,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13983,14 +13707,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14022,14 +13740,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14061,14 +13773,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14100,14 +13806,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14139,14 +13839,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14178,14 +13872,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14217,14 +13905,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14253,19 +13935,13 @@
         <v>1490382.211268621</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
-        <v>1.021666666666667</v>
+        <v>1</v>
       </c>
       <c r="M390" t="inlineStr"/>
     </row>
@@ -14325,7 +14001,7 @@
         <v>1540969.202568622</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14523,7 +14199,7 @@
         <v>1736298.675835994</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14556,7 +14232,7 @@
         <v>1723983.663435994</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14589,7 +14265,7 @@
         <v>1723983.663435994</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14622,7 +14298,7 @@
         <v>1723983.663435994</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14655,7 +14331,7 @@
         <v>1653184.680935994</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14688,7 +14364,7 @@
         <v>1667536.873935994</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14721,7 +14397,7 @@
         <v>1603954.873935994</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14754,7 +14430,7 @@
         <v>1601342.901435995</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14787,7 +14463,7 @@
         <v>1611342.901435995</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14820,7 +14496,7 @@
         <v>1688853.262635994</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15183,7 +14859,7 @@
         <v>1385882.647035995</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -19176,7 +18852,7 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19209,7 +18885,7 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19242,7 +18918,7 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19275,7 +18951,7 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19308,7 +18984,7 @@
         <v>1055446.199935995</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19341,7 +19017,7 @@
         <v>1054943.564035994</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19374,7 +19050,7 @@
         <v>935481.3496359945</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19407,7 +19083,7 @@
         <v>937797.7994359945</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19440,7 +19116,7 @@
         <v>943797.7994359945</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19473,7 +19149,7 @@
         <v>939396.5447359944</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19506,7 +19182,7 @@
         <v>1142501.671135994</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19539,7 +19215,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19572,7 +19248,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19605,7 +19281,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19638,7 +19314,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19671,7 +19347,7 @@
         <v>1023891.671135994</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19704,7 +19380,7 @@
         <v>1032565.205035994</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19737,7 +19413,7 @@
         <v>1028565.205035994</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19770,7 +19446,7 @@
         <v>1046652.205035994</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19803,7 +19479,7 @@
         <v>1056792.205035994</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19836,7 +19512,7 @@
         <v>1056782.205035994</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19869,7 +19545,7 @@
         <v>1044983.141235994</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19979,6 +19655,6 @@
       <c r="M563" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest OGO.xlsx
+++ b/BackTest/2019-10-29 BackTest OGO.xlsx
@@ -451,7 +451,7 @@
         <v>398128.4032</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>359106.1365</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>276828.023</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1230610.714795</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1286913.757295</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1251466.809095</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1122693.073895</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1153454.331295</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>682133.1681949999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>743113.1757949999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>910282.1206504656</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>910282.1206504656</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>921270.1206504656</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>921270.1206504656</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1284741.123650466</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1372999.167930549</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1372999.167930549</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1430291.007630549</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1371865.007630549</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1371865.007630549</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1360588.007630549</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1360588.007630549</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1390742.007630549</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1440962.007630549</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1438962.007630549</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1432194.182730549</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1385230.52713055</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1340025.16623055</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1344025.16623055</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1312661.41103055</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>666185.2944305496</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>679563.8856305496</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>668568.8856305496</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7975,14 +7975,10 @@
         <v>603974.0219305495</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J230" t="n">
-        <v>22.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
@@ -8012,19 +8008,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J231" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8053,19 +8041,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J232" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8094,19 +8074,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J233" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8135,19 +8107,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J234" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8176,19 +8140,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J235" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8217,19 +8173,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J236" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8258,19 +8206,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J237" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8299,19 +8239,11 @@
         <v>581756.6119305495</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="J238" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8346,13 +8278,9 @@
         <v>22.5</v>
       </c>
       <c r="J239" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>22.5</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +8315,11 @@
         <v>22.4</v>
       </c>
       <c r="J240" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8428,7 +8356,7 @@
         <v>22.4</v>
       </c>
       <c r="J241" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8469,7 +8397,7 @@
         <v>22.3</v>
       </c>
       <c r="J242" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8510,7 +8438,7 @@
         <v>22.4</v>
       </c>
       <c r="J243" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8551,7 +8479,7 @@
         <v>22.4</v>
       </c>
       <c r="J244" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8592,7 +8520,7 @@
         <v>22.4</v>
       </c>
       <c r="J245" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8633,7 +8561,7 @@
         <v>22.4</v>
       </c>
       <c r="J246" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8674,7 +8602,7 @@
         <v>22.5</v>
       </c>
       <c r="J247" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8715,7 +8643,7 @@
         <v>22.5</v>
       </c>
       <c r="J248" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8756,7 +8684,7 @@
         <v>22.5</v>
       </c>
       <c r="J249" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8795,7 +8723,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8834,7 +8762,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8875,7 +8803,7 @@
         <v>22.5</v>
       </c>
       <c r="J252" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8914,7 +8842,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8953,7 +8881,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8992,7 +8920,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9031,7 +8959,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9070,7 +8998,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9109,7 +9037,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9148,7 +9076,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9187,7 +9115,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9226,7 +9154,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9265,7 +9193,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9304,7 +9232,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9343,7 +9271,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9382,7 +9310,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9421,7 +9349,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9460,7 +9388,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9499,7 +9427,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9534,11 +9462,13 @@
         <v>902254.6883305494</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>23</v>
+      </c>
       <c r="J269" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9573,11 +9503,13 @@
         <v>902284.6883305494</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J270" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9612,11 +9544,13 @@
         <v>902284.6883305494</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>23</v>
+      </c>
       <c r="J271" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9655,7 +9589,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9690,11 +9624,13 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J273" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9729,11 +9665,13 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J274" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9768,11 +9706,13 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J275" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9807,11 +9747,13 @@
         <v>912284.6883305494</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J276" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9846,11 +9788,13 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J277" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9885,11 +9829,13 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>23</v>
+      </c>
       <c r="J278" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9924,11 +9870,13 @@
         <v>910221.6883305494</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>23</v>
+      </c>
       <c r="J279" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9963,11 +9911,13 @@
         <v>873617.6883305494</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>23</v>
+      </c>
       <c r="J280" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10002,11 +9952,13 @@
         <v>866633.5910305494</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J281" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10041,11 +9993,13 @@
         <v>880316.5910305494</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J282" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10080,11 +10034,13 @@
         <v>859216.5910305494</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>23.2</v>
+      </c>
       <c r="J283" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10119,11 +10075,13 @@
         <v>859410.5565305494</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J284" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10158,11 +10116,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>23.1</v>
+      </c>
       <c r="J285" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10197,11 +10157,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>23</v>
+      </c>
       <c r="J286" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10236,11 +10198,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>23</v>
+      </c>
       <c r="J287" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10275,11 +10239,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>23</v>
+      </c>
       <c r="J288" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10314,11 +10280,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>23</v>
+      </c>
       <c r="J289" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10353,11 +10321,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>23</v>
+      </c>
       <c r="J290" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10392,11 +10362,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>23</v>
+      </c>
       <c r="J291" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10431,11 +10403,13 @@
         <v>815742.4343305494</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>23</v>
+      </c>
       <c r="J292" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10474,7 +10448,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10509,11 +10483,13 @@
         <v>837638.8968305495</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>22.5</v>
+      </c>
       <c r="J294" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10548,11 +10524,13 @@
         <v>813638.8968305495</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J295" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10587,11 +10565,13 @@
         <v>813738.8968305495</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>22.6</v>
+      </c>
       <c r="J296" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10626,11 +10606,13 @@
         <v>813647.5771305495</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J297" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10669,7 +10651,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10708,7 +10690,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10747,7 +10729,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10786,7 +10768,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10825,7 +10807,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10864,7 +10846,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10903,7 +10885,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10942,7 +10924,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10981,7 +10963,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11020,7 +11002,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11059,7 +11041,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11098,7 +11080,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11137,7 +11119,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11176,7 +11158,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11215,7 +11197,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11254,7 +11236,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11293,7 +11275,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11332,7 +11314,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11371,7 +11353,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11410,7 +11392,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11449,7 +11431,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11488,7 +11470,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11527,7 +11509,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11566,7 +11548,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11605,7 +11587,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11644,7 +11626,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11683,7 +11665,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11722,7 +11704,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11761,7 +11743,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11800,7 +11782,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11839,7 +11821,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11878,7 +11860,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11917,7 +11899,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11956,7 +11938,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11995,7 +11977,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12034,7 +12016,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12073,7 +12055,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12112,7 +12094,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12147,19 +12129,19 @@
         <v>1448676.826705062</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>1.01712389380531</v>
+        <v>1</v>
       </c>
       <c r="M336" t="inlineStr"/>
     </row>
@@ -12189,8 +12171,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12222,8 +12210,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12255,8 +12249,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12288,8 +12288,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12321,8 +12327,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12354,8 +12366,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12387,8 +12405,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12420,8 +12444,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12453,8 +12483,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12486,8 +12522,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12519,8 +12561,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12552,8 +12600,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12585,8 +12639,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12618,8 +12678,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12651,8 +12717,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12684,8 +12756,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12717,8 +12795,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12750,8 +12834,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12783,8 +12873,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12816,8 +12912,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12846,11 +12948,17 @@
         <v>2034235.400805062</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12882,8 +12990,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12915,8 +13029,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12948,8 +13068,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12978,11 +13104,17 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13011,11 +13143,17 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13044,11 +13182,17 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13077,11 +13221,17 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13110,11 +13260,17 @@
         <v>2029870.317268621</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13143,11 +13299,17 @@
         <v>2032563.317268621</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13176,11 +13338,17 @@
         <v>1999387.048268621</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13209,11 +13377,17 @@
         <v>2008398.048268621</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13242,11 +13416,17 @@
         <v>2010138.048268621</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13275,11 +13455,17 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13308,11 +13494,17 @@
         <v>2080159.048268621</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13341,11 +13533,17 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13374,11 +13572,17 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13407,11 +13611,17 @@
         <v>2074159.048268621</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13440,11 +13650,17 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13476,8 +13692,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +13728,17 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13539,11 +13767,17 @@
         <v>2094159.048268621</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13572,11 +13806,17 @@
         <v>1450972.978568621</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13608,8 +13848,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13641,8 +13887,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13674,8 +13926,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13707,8 +13965,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13740,8 +14004,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13773,8 +14043,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13806,8 +14082,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13839,8 +14121,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13872,8 +14160,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13905,8 +14199,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13938,8 +14238,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13971,8 +14277,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14004,8 +14316,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14037,8 +14355,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14070,8 +14394,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14103,8 +14433,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14136,8 +14472,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14169,8 +14511,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14202,8 +14550,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14235,8 +14589,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14268,8 +14628,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14301,8 +14667,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14334,8 +14706,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14367,8 +14745,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14400,8 +14784,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14433,8 +14823,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14466,8 +14862,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14499,8 +14901,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14532,8 +14940,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14565,8 +14979,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14598,8 +15018,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14631,8 +15057,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14664,8 +15096,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14697,8 +15135,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14730,8 +15174,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14763,8 +15213,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14796,8 +15252,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14829,8 +15291,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14862,8 +15330,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14895,8 +15369,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14928,8 +15408,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14961,8 +15447,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14994,8 +15486,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15027,8 +15525,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15060,8 +15564,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15093,8 +15603,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15126,8 +15642,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15159,8 +15681,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15192,8 +15720,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15225,8 +15759,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15258,8 +15798,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15291,8 +15837,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15324,8 +15876,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15357,8 +15915,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15390,8 +15954,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15423,8 +15993,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15456,8 +16032,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15489,8 +16071,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15522,8 +16110,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15555,8 +16149,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15588,8 +16188,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15621,8 +16227,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15654,8 +16266,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15687,8 +16305,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15720,8 +16344,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15753,8 +16383,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15786,8 +16422,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15819,8 +16461,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15852,8 +16500,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15885,8 +16539,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15918,8 +16578,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15951,8 +16617,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15984,8 +16656,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16017,8 +16695,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16050,8 +16734,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16083,8 +16773,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16116,8 +16812,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16149,8 +16851,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16182,8 +16890,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16215,8 +16929,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16248,8 +16968,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16281,8 +17007,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16314,8 +17046,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16347,8 +17085,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16380,8 +17124,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16413,8 +17163,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16446,8 +17202,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16479,8 +17241,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16512,8 +17280,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16545,8 +17319,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16578,8 +17358,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16611,8 +17397,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16644,8 +17436,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16677,8 +17475,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16710,8 +17514,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16743,8 +17553,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16776,8 +17592,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16809,8 +17631,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16842,8 +17670,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16875,8 +17709,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16908,8 +17748,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16941,8 +17787,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16974,8 +17826,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17007,8 +17865,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17040,8 +17904,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17073,8 +17943,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17106,8 +17982,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17139,8 +18021,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17172,8 +18060,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17205,8 +18099,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17238,8 +18138,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17271,8 +18177,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17304,8 +18216,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17337,8 +18255,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17370,8 +18294,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17403,8 +18333,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17436,8 +18372,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17469,8 +18411,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17502,8 +18450,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17535,8 +18489,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17568,8 +18528,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17601,8 +18567,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17634,8 +18606,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17667,8 +18645,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17700,8 +18684,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17733,8 +18723,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17766,8 +18762,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17799,8 +18801,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17832,8 +18840,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17865,8 +18879,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17898,8 +18918,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17931,8 +18957,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17964,8 +18996,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17997,8 +19035,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18030,8 +19074,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18063,8 +19113,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18096,8 +19152,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18129,8 +19191,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18162,8 +19230,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18195,8 +19269,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18228,8 +19308,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18261,8 +19347,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18294,8 +19386,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18327,8 +19425,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18360,8 +19464,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18393,8 +19503,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18426,8 +19542,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18459,8 +19581,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18492,8 +19620,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18525,8 +19659,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18558,8 +19698,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18591,8 +19737,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18624,8 +19776,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18657,8 +19815,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18690,8 +19854,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18723,8 +19893,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18756,8 +19932,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18789,8 +19971,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18822,8 +20010,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18852,11 +20046,17 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18885,11 +20085,17 @@
         <v>1159907.450935995</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18918,11 +20124,17 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18951,11 +20163,17 @@
         <v>1234599.450935995</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18987,12 +20205,20 @@
         <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
+        <v>1.075</v>
+      </c>
+      <c r="M543" t="n">
+        <v>1.192660550458716</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -19050,7 +20276,7 @@
         <v>935481.3496359945</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19083,7 +20309,7 @@
         <v>937797.7994359945</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19116,7 +20342,7 @@
         <v>943797.7994359945</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19149,7 +20375,7 @@
         <v>939396.5447359944</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19182,7 +20408,7 @@
         <v>1142501.671135994</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19215,7 +20441,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19248,7 +20474,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19281,7 +20507,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19314,7 +20540,7 @@
         <v>1021891.671135994</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19347,7 +20573,7 @@
         <v>1023891.671135994</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19380,7 +20606,7 @@
         <v>1032565.205035994</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19413,7 +20639,7 @@
         <v>1028565.205035994</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19446,7 +20672,7 @@
         <v>1046652.205035994</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19479,7 +20705,7 @@
         <v>1056792.205035994</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19512,7 +20738,7 @@
         <v>1056782.205035994</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19545,7 +20771,7 @@
         <v>1044983.141235994</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
